--- a/R/exercise_excel_2.xlsx
+++ b/R/exercise_excel_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\R\meesterj\tyre-friction-abrassion-emission\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FBCAB1-564A-4618-9648-C19B5A575861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9D7EA-8A21-4614-A4D8-263F0FEF2F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{34E25DE0-1C56-4E31-BA60-526540E85CF9}"/>
+    <workbookView minimized="1" xWindow="2310" yWindow="2580" windowWidth="13800" windowHeight="7320" xr2:uid="{34E25DE0-1C56-4E31-BA60-526540E85CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,11 +442,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E82362F-161E-46E6-A1C2-2F7D451486B0}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -600,7 +604,7 @@
         <v>4.7192962585419247</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P4" si="0">E3*N3+(1/2*K3*N3^2)+G3*O3+(1/2*L3*O3^2)</f>
+        <f t="shared" ref="P3" si="0">E3*N3+(1/2*K3*N3^2)+G3*O3+(1/2*L3*O3^2)</f>
         <v>137.64614087413946</v>
       </c>
     </row>
